--- a/Results/Results_Read_thesis.xlsx
+++ b/Results/Results_Read_thesis.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Page Value Read Node" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Buffer Value Read Node" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Image Value Read Node" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Connection Time" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Monitored Items" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -876,11 +876,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="54935606"/>
-        <c:axId val="51566851"/>
+        <c:axId val="26071277"/>
+        <c:axId val="29673286"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54935606"/>
+        <c:axId val="26071277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,14 +912,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51566851"/>
+        <c:crossAx val="29673286"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51566851"/>
+        <c:axId val="29673286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54935606"/>
+        <c:crossAx val="26071277"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1456,11 +1456,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="42311187"/>
-        <c:axId val="89580360"/>
+        <c:axId val="54637154"/>
+        <c:axId val="71795614"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42311187"/>
+        <c:axId val="54637154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,14 +1492,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89580360"/>
+        <c:crossAx val="71795614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89580360"/>
+        <c:axId val="71795614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42311187"/>
+        <c:crossAx val="54637154"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2106,11 +2106,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="56054050"/>
-        <c:axId val="93237776"/>
+        <c:axId val="41424795"/>
+        <c:axId val="92709294"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56054050"/>
+        <c:axId val="41424795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,14 +2142,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93237776"/>
+        <c:crossAx val="92709294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93237776"/>
+        <c:axId val="92709294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2216,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56054050"/>
+        <c:crossAx val="41424795"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2756,11 +2756,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="99070678"/>
-        <c:axId val="72036247"/>
+        <c:axId val="27119434"/>
+        <c:axId val="90566255"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99070678"/>
+        <c:axId val="27119434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,14 +2792,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72036247"/>
+        <c:crossAx val="90566255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72036247"/>
+        <c:axId val="90566255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99070678"/>
+        <c:crossAx val="27119434"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3406,11 +3406,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="53788835"/>
-        <c:axId val="30395458"/>
+        <c:axId val="25470300"/>
+        <c:axId val="78457911"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53788835"/>
+        <c:axId val="25470300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,14 +3442,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30395458"/>
+        <c:crossAx val="78457911"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30395458"/>
+        <c:axId val="78457911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,7 +3516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53788835"/>
+        <c:crossAx val="25470300"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -4056,11 +4056,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74548429"/>
-        <c:axId val="99983697"/>
+        <c:axId val="18181235"/>
+        <c:axId val="68532846"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74548429"/>
+        <c:axId val="18181235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,14 +4092,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99983697"/>
+        <c:crossAx val="68532846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99983697"/>
+        <c:axId val="68532846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4166,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74548429"/>
+        <c:crossAx val="18181235"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -4706,11 +4706,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="2932033"/>
-        <c:axId val="21282488"/>
+        <c:axId val="8893410"/>
+        <c:axId val="26824531"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2932033"/>
+        <c:axId val="8893410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4742,14 +4742,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21282488"/>
+        <c:crossAx val="26824531"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21282488"/>
+        <c:axId val="26824531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2932033"/>
+        <c:crossAx val="8893410"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -5286,11 +5286,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="92646256"/>
-        <c:axId val="3284997"/>
+        <c:axId val="98269736"/>
+        <c:axId val="75891934"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92646256"/>
+        <c:axId val="98269736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,14 +5322,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3284997"/>
+        <c:crossAx val="75891934"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3284997"/>
+        <c:axId val="75891934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,7 +5396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92646256"/>
+        <c:crossAx val="98269736"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -5936,11 +5936,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="41776019"/>
-        <c:axId val="26735281"/>
+        <c:axId val="60541072"/>
+        <c:axId val="96330437"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41776019"/>
+        <c:axId val="60541072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,14 +5972,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26735281"/>
+        <c:crossAx val="96330437"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26735281"/>
+        <c:axId val="96330437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,7 +6046,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41776019"/>
+        <c:crossAx val="60541072"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -6516,11 +6516,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="89223414"/>
-        <c:axId val="99762173"/>
+        <c:axId val="76148297"/>
+        <c:axId val="41657326"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89223414"/>
+        <c:axId val="76148297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6552,14 +6552,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99762173"/>
+        <c:crossAx val="41657326"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99762173"/>
+        <c:axId val="41657326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6626,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89223414"/>
+        <c:crossAx val="76148297"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -7166,11 +7166,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="97539351"/>
-        <c:axId val="4869057"/>
+        <c:axId val="92317468"/>
+        <c:axId val="14074688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97539351"/>
+        <c:axId val="92317468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7202,14 +7202,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4869057"/>
+        <c:crossAx val="14074688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4869057"/>
+        <c:axId val="14074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7276,7 +7276,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97539351"/>
+        <c:crossAx val="92317468"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -7321,9 +7321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>561240</xdr:colOff>
+      <xdr:colOff>560880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7332,7 +7332,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406120" y="2323800"/>
-        <a:ext cx="10256400" cy="2647080"/>
+        <a:ext cx="10256040" cy="2646720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7356,9 +7356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7367,7 +7367,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2322360"/>
-        <a:ext cx="10841400" cy="2658240"/>
+        <a:ext cx="10841040" cy="2657880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7391,9 +7391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7402,7 +7402,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2352240"/>
-        <a:ext cx="10831680" cy="2666520"/>
+        <a:ext cx="10831320" cy="2666160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7426,9 +7426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7437,7 +7437,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406840" y="2303280"/>
-        <a:ext cx="10455480" cy="2496600"/>
+        <a:ext cx="10455120" cy="2496240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7461,9 +7461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
+      <xdr:colOff>559800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7472,7 +7472,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030280" y="2293200"/>
-        <a:ext cx="10644480" cy="2719080"/>
+        <a:ext cx="10644120" cy="2718720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7496,9 +7496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7507,7 +7507,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2269800"/>
-        <a:ext cx="10402920" cy="2710800"/>
+        <a:ext cx="10402560" cy="2710440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7526,9 +7526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7537,7 +7537,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2293200"/>
-        <a:ext cx="10412640" cy="2719080"/>
+        <a:ext cx="10412280" cy="2718720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7561,9 +7561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7572,7 +7572,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10402920" cy="2711160"/>
+        <a:ext cx="10402560" cy="2710800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7591,9 +7591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7602,7 +7602,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2321640"/>
-        <a:ext cx="10412640" cy="2719440"/>
+        <a:ext cx="10412280" cy="2719080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7626,9 +7626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>500760</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7637,7 +7637,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10396440" cy="2711160"/>
+        <a:ext cx="10396080" cy="2710800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7656,9 +7656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7667,7 +7667,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3972960" y="2321640"/>
-        <a:ext cx="10587240" cy="2719440"/>
+        <a:ext cx="10586880" cy="2719080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9233,7 +9233,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9324,11 +9324,21 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="1" t="n">
+        <v>13796</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>25.87</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -9467,11 +9477,21 @@
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="1" t="n">
+        <v>9684</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>20.47</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -9610,11 +9630,21 @@
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="1" t="n">
+        <v>15258</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>40.82</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">

--- a/Results/Results_Read_thesis.xlsx
+++ b/Results/Results_Read_thesis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Single Value Read" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="Buffer Value Read Node" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Image Value Read Node" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Monitored Items" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Booting Server Tİme" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Adding and Deleting Refeences" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
   <si>
     <t xml:space="preserve">Device Name</t>
   </si>
@@ -85,6 +87,24 @@
   </si>
   <si>
     <t xml:space="preserve">100ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadOutOfMemory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0 with 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milliseconds</t>
   </si>
 </sst>
 </file>
@@ -370,7 +390,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -876,11 +896,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="26071277"/>
-        <c:axId val="29673286"/>
+        <c:axId val="26161001"/>
+        <c:axId val="47461879"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26071277"/>
+        <c:axId val="26161001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,14 +932,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29673286"/>
+        <c:crossAx val="47461879"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29673286"/>
+        <c:axId val="47461879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +1006,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26071277"/>
+        <c:crossAx val="26161001"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1020,7 +1040,2607 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Page Value Read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Page Value Read'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Page Value Read'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Page Value Read'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Page Value Read'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Page Value Read'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.036581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="10119848"/>
+        <c:axId val="27471647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10119848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27471647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27471647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10119848"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Buffer Value Read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffer Value Read'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffer Value Read'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffer Value Read'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffer Value Read'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buffer Value Read'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="80147396"/>
+        <c:axId val="35477138"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80147396"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35477138"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35477138"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80147396"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Image Value Read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Image Value Read'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>163362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Image Value Read'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Image Value Read'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Image Value Read'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Image Value Read'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="16282689"/>
+        <c:axId val="19135591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="16282689"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19135591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19135591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16282689"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Single Value Read by Node Call</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Value Read Node'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Value Read Node'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Value Read Node'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Value Read Node'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Raspberry Pi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beaglebone Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Onion Omega2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linkit Smart </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localhost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linux Server</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adafruit Huzzah ESP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Value Read Node'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="71232945"/>
+        <c:axId val="58865314"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71232945"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58865314"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58865314"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71232945"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1456,11 +4076,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="54637154"/>
-        <c:axId val="71795614"/>
+        <c:axId val="2904609"/>
+        <c:axId val="35242240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54637154"/>
+        <c:axId val="2904609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,14 +4112,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71795614"/>
+        <c:crossAx val="35242240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71795614"/>
+        <c:axId val="35242240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +4186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54637154"/>
+        <c:crossAx val="2904609"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1600,7 +4220,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1626,7 +4246,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri Light"/>
               </a:rPr>
-              <a:t>Image Value Read by Node Call</a:t>
+              <a:t>Page Value Read by Node Call</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1703,30 +4323,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Image Value Read Node'!$B$3:$B$9</c:f>
+              <c:f>'Page Value Read Node'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>196604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>405746</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>633036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>494806</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165273</c:v>
+                  <c:v>25472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>122004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,30 +4416,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Image Value Read Node'!$C$3:$C$9</c:f>
+              <c:f>'Page Value Read Node'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
+                <c:pt idx="4">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,30 +4509,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Image Value Read Node'!$D$3:$D$9</c:f>
+              <c:f>'Page Value Read Node'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2073</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1008</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>1989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,30 +4602,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Image Value Read Node'!$E$3:$E$9</c:f>
+              <c:f>'Page Value Read Node'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.063</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.52</c:v>
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,30 +4695,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Image Value Read Node'!$F$3:$F$9</c:f>
+              <c:f>'Page Value Read Node'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.61</c:v>
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>55.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,11 +4726,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="41424795"/>
-        <c:axId val="92709294"/>
+        <c:axId val="73775123"/>
+        <c:axId val="31810459"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41424795"/>
+        <c:axId val="73775123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,14 +4762,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92709294"/>
+        <c:crossAx val="31810459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92709294"/>
+        <c:axId val="31810459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +4836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41424795"/>
+        <c:crossAx val="73775123"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2250,7 +4870,587 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Page Value Read by Node Call</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="18122893"/>
+        <c:axId val="55893717"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18122893"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55893717"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55893717"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18122893"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2276,7 +5476,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri Light"/>
               </a:rPr>
-              <a:t>Page Value Read</a:t>
+              <a:t>Buffer Value Read by Node Call</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2294,7 +5494,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$B$2</c:f>
+              <c:f>'Single Value Read Node'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2324,7 +5524,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2353,30 +5553,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Value Read'!$B$3:$B$9</c:f>
+              <c:f>'Buffer Value Read Node'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49862</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51071</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27524</c:v>
+                  <c:v>39095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282559</c:v>
+                  <c:v>118850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,7 +5587,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$C$2</c:f>
+              <c:f>'Single Value Read Node'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2417,7 +5617,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2446,24 +5646,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Value Read'!$C$3:$C$9</c:f>
+              <c:f>'Buffer Value Read Node'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43</c:v>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -2480,7 +5680,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$D$2</c:f>
+              <c:f>'Single Value Read Node'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2510,7 +5710,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2539,30 +5739,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Value Read'!$D$3:$D$9</c:f>
+              <c:f>'Buffer Value Read Node'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>153</c:v>
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2503</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +5773,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$E$2</c:f>
+              <c:f>'Single Value Read Node'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2603,7 +5803,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2632,30 +5832,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Value Read'!$E$3:$E$9</c:f>
+              <c:f>'Buffer Value Read Node'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.75</c:v>
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.25</c:v>
+                  <c:v>11.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +5866,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$F$2</c:f>
+              <c:f>'Single Value Read Node'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2696,7 +5896,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2725,30 +5925,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Value Read'!$F$3:$F$9</c:f>
+              <c:f>'Buffer Value Read Node'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.036581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.144914</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.28</c:v>
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.94</c:v>
+                  <c:v>50.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,11 +5956,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="27119434"/>
-        <c:axId val="90566255"/>
+        <c:axId val="83656904"/>
+        <c:axId val="84466495"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27119434"/>
+        <c:axId val="83656904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,14 +5992,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90566255"/>
+        <c:crossAx val="84466495"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90566255"/>
+        <c:axId val="84466495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +6066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27119434"/>
+        <c:crossAx val="83656904"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2900,7 +6100,587 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="808080"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri Light"/>
+              </a:rPr>
+              <a:t>Page Value Read by Node Call</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="77610896"/>
+        <c:axId val="50437795"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77610896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50437795"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50437795"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77610896"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2926,7 +6706,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri Light"/>
               </a:rPr>
-              <a:t>Buffer Value Read</a:t>
+              <a:t>Image Value Read by Node Call</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2944,7 +6724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$B$2</c:f>
+              <c:f>'Single Value Read Node'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2974,7 +6754,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3003,30 +6783,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffer Value Read'!$B$3:$B$9</c:f>
+              <c:f>'Image Value Read Node'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47535</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36264</c:v>
+                  <c:v>196604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>405746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90197</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +6817,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$C$2</c:f>
+              <c:f>'Single Value Read Node'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3067,7 +6847,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3096,30 +6876,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffer Value Read'!$C$3:$C$9</c:f>
+              <c:f>'Image Value Read Node'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,7 +6910,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$D$2</c:f>
+              <c:f>'Single Value Read Node'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3160,7 +6940,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3189,30 +6969,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffer Value Read'!$D$3:$D$9</c:f>
+              <c:f>'Image Value Read Node'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1478</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +7003,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$E$2</c:f>
+              <c:f>'Single Value Read Node'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3253,7 +7033,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3282,30 +7062,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffer Value Read'!$E$3:$E$9</c:f>
+              <c:f>'Image Value Read Node'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0268</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.62</c:v>
+                  <c:v>19.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,7 +7096,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single Value Read'!$F$2</c:f>
+              <c:f>'Single Value Read Node'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3346,7 +7126,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
+              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3375,30 +7155,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buffer Value Read'!$F$3:$F$9</c:f>
+              <c:f>'Image Value Read Node'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.01</c:v>
+                  <c:v>4.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.16</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,11 +7186,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="25470300"/>
-        <c:axId val="78457911"/>
+        <c:axId val="73917905"/>
+        <c:axId val="83098830"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25470300"/>
+        <c:axId val="73917905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,14 +7222,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78457911"/>
+        <c:crossAx val="83098830"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78457911"/>
+        <c:axId val="83098830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,3767 +7296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25470300"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Image Value Read</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Image Value Read'!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>163362</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>295285</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>530388</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>284265</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162577</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>113591</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Image Value Read'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maximum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Image Value Read'!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1555</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Image Value Read'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0685</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Image Value Read'!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="18181235"/>
-        <c:axId val="68532846"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="18181235"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68532846"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68532846"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="18181235"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Single Value Read by Node Call</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Value Read Node'!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>24943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>138531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Value Read Node'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maximum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Value Read Node'!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1477</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Value Read Node'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Value Read Node'!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="8893410"/>
-        <c:axId val="26824531"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="8893410"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26824531"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="26824531"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="8893410"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Page Value Read by Node Call</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>25775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>217351</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>293017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126323</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="98269736"/>
-        <c:axId val="75891934"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="98269736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="75891934"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75891934"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98269736"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Page Value Read by Node Call</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Page Value Read Node'!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>25472</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>122004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Page Value Read Node'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maximum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Page Value Read Node'!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.092</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Page Value Read Node'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Page Value Read Node'!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="60541072"/>
-        <c:axId val="96330437"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="60541072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96330437"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96330437"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60541072"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Page Value Read by Node Call</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>25775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>217351</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>293017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126323</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="76148297"/>
-        <c:axId val="41657326"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="76148297"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41657326"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="41657326"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="76148297"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>Buffer Value Read by Node Call</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buffer Value Read Node'!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>39095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42272</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>83081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25327</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buffer Value Read Node'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Maximum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buffer Value Read Node'!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>818</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buffer Value Read Node'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0349</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Value Read Node'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Raspberry Pi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Beaglebone Black</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Onion Omega2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linkit Smart </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localhost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Linux Server</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adafruit Huzzah ESP32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buffer Value Read Node'!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="92317468"/>
-        <c:axId val="14074688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="92317468"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14074688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="14074688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92317468"/>
+        <c:crossAx val="73917905"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -7321,9 +7341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>560880</xdr:colOff>
+      <xdr:colOff>559800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7332,7 +7352,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406120" y="2323800"/>
-        <a:ext cx="10256040" cy="2646720"/>
+        <a:ext cx="10254960" cy="2645640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7356,9 +7376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7367,7 +7387,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2322360"/>
-        <a:ext cx="10841040" cy="2657880"/>
+        <a:ext cx="10839960" cy="2656800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7391,9 +7411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>760680</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7402,7 +7422,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2352240"/>
-        <a:ext cx="10831320" cy="2666160"/>
+        <a:ext cx="10830240" cy="2665080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7426,9 +7446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>760680</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7437,7 +7457,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406840" y="2303280"/>
-        <a:ext cx="10455120" cy="2496240"/>
+        <a:ext cx="10454040" cy="2495160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7461,9 +7481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7472,7 +7492,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030280" y="2293200"/>
-        <a:ext cx="10644120" cy="2718720"/>
+        <a:ext cx="10643040" cy="2717640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7496,9 +7516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>505800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7507,7 +7527,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2269800"/>
-        <a:ext cx="10402560" cy="2710440"/>
+        <a:ext cx="10401480" cy="2709360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7526,9 +7546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506160</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7537,7 +7557,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2293200"/>
-        <a:ext cx="10412280" cy="2718720"/>
+        <a:ext cx="10411200" cy="2717640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7561,9 +7581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>505800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7572,7 +7592,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10402560" cy="2710800"/>
+        <a:ext cx="10401480" cy="2709720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7591,9 +7611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>506160</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7602,7 +7622,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2321640"/>
-        <a:ext cx="10412280" cy="2719080"/>
+        <a:ext cx="10411200" cy="2718000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7626,9 +7646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>499320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7637,7 +7657,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10396080" cy="2710800"/>
+        <a:ext cx="10395000" cy="2709720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7656,9 +7676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7667,7 +7687,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3972960" y="2321640"/>
-        <a:ext cx="10586880" cy="2719080"/>
+        <a:ext cx="10585800" cy="2718000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7871,6 +7891,463 @@
     <oddFooter/>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>8571</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>14532</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50614</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>49154</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3908</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>25380</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:F23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>24719</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>33715</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>39884</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4.011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>40350</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>48729</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>24493</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>5.606</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>36600</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>39018</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>37958</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>46765</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9232,8 +9709,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Results/Results_Read_thesis.xlsx
+++ b/Results/Results_Read_thesis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Single Value Read" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,9 +16,10 @@
     <sheet name="Page Value Read Node" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Buffer Value Read Node" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Image Value Read Node" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Monitored Items" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Booting Server Tİme" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Adding and Deleting Refeences" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Write Time" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Monitored Items" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Booting Server Tİme" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Adding and Deleting Refeences" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="30">
   <si>
     <t xml:space="preserve">Device Name</t>
   </si>
@@ -75,6 +76,21 @@
   </si>
   <si>
     <t xml:space="preserve">Linkit Smart 7688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackoverflow 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write</t>
   </si>
   <si>
     <t xml:space="preserve">1000 Items</t>
@@ -390,7 +406,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -896,11 +912,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="26161001"/>
-        <c:axId val="47461879"/>
+        <c:axId val="14954019"/>
+        <c:axId val="78922228"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26161001"/>
+        <c:axId val="14954019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,14 +948,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47461879"/>
+        <c:crossAx val="78922228"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47461879"/>
+        <c:axId val="78922228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26161001"/>
+        <c:crossAx val="14954019"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1040,7 +1056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1546,11 +1562,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="10119848"/>
-        <c:axId val="27471647"/>
+        <c:axId val="20744070"/>
+        <c:axId val="75611126"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10119848"/>
+        <c:axId val="20744070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,14 +1598,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27471647"/>
+        <c:crossAx val="75611126"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27471647"/>
+        <c:axId val="75611126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10119848"/>
+        <c:crossAx val="20744070"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1690,7 +1706,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2196,11 +2212,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="80147396"/>
-        <c:axId val="35477138"/>
+        <c:axId val="96658637"/>
+        <c:axId val="34577777"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80147396"/>
+        <c:axId val="96658637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,14 +2248,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35477138"/>
+        <c:crossAx val="34577777"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35477138"/>
+        <c:axId val="34577777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80147396"/>
+        <c:crossAx val="96658637"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2340,7 +2356,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2846,11 +2862,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="16282689"/>
-        <c:axId val="19135591"/>
+        <c:axId val="89512449"/>
+        <c:axId val="31253437"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16282689"/>
+        <c:axId val="89512449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,14 +2898,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19135591"/>
+        <c:crossAx val="31253437"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19135591"/>
+        <c:axId val="31253437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2972,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16282689"/>
+        <c:crossAx val="89512449"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2990,7 +3006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3496,11 +3512,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="71232945"/>
-        <c:axId val="58865314"/>
+        <c:axId val="89397780"/>
+        <c:axId val="75987598"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71232945"/>
+        <c:axId val="89397780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,14 +3548,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58865314"/>
+        <c:crossAx val="75987598"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58865314"/>
+        <c:axId val="75987598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3622,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71232945"/>
+        <c:crossAx val="89397780"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3640,7 +3656,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4076,11 +4092,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="2904609"/>
-        <c:axId val="35242240"/>
+        <c:axId val="49003058"/>
+        <c:axId val="41324980"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2904609"/>
+        <c:axId val="49003058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,14 +4128,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35242240"/>
+        <c:crossAx val="41324980"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35242240"/>
+        <c:axId val="41324980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4186,7 +4202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2904609"/>
+        <c:crossAx val="49003058"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -4220,7 +4236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4726,11 +4742,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="73775123"/>
-        <c:axId val="31810459"/>
+        <c:axId val="18185245"/>
+        <c:axId val="49317154"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73775123"/>
+        <c:axId val="18185245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,14 +4778,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31810459"/>
+        <c:crossAx val="49317154"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31810459"/>
+        <c:axId val="49317154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,7 +4852,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73775123"/>
+        <c:crossAx val="18185245"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -4870,7 +4886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5306,11 +5322,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="18122893"/>
-        <c:axId val="55893717"/>
+        <c:axId val="93887936"/>
+        <c:axId val="70564804"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18122893"/>
+        <c:axId val="93887936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,14 +5358,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55893717"/>
+        <c:crossAx val="70564804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55893717"/>
+        <c:axId val="70564804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5416,7 +5432,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18122893"/>
+        <c:crossAx val="93887936"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -5450,7 +5466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5956,11 +5972,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="83656904"/>
-        <c:axId val="84466495"/>
+        <c:axId val="73450113"/>
+        <c:axId val="99893371"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83656904"/>
+        <c:axId val="73450113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,14 +6008,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84466495"/>
+        <c:crossAx val="99893371"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84466495"/>
+        <c:axId val="99893371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83656904"/>
+        <c:crossAx val="73450113"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -6100,7 +6116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6536,11 +6552,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="77610896"/>
-        <c:axId val="50437795"/>
+        <c:axId val="28450999"/>
+        <c:axId val="46650400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77610896"/>
+        <c:axId val="28450999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6572,14 +6588,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50437795"/>
+        <c:crossAx val="46650400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50437795"/>
+        <c:axId val="46650400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,7 +6662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77610896"/>
+        <c:crossAx val="28450999"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -6680,7 +6696,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7186,11 +7202,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="73917905"/>
-        <c:axId val="83098830"/>
+        <c:axId val="3695391"/>
+        <c:axId val="81823402"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73917905"/>
+        <c:axId val="3695391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,14 +7238,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83098830"/>
+        <c:crossAx val="81823402"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83098830"/>
+        <c:axId val="81823402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,7 +7312,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73917905"/>
+        <c:crossAx val="3695391"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -7341,9 +7357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7352,7 +7368,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406120" y="2323800"/>
-        <a:ext cx="10254960" cy="2645640"/>
+        <a:ext cx="10254600" cy="2645280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7376,9 +7392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7387,7 +7403,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2322360"/>
-        <a:ext cx="10839960" cy="2656800"/>
+        <a:ext cx="10839600" cy="2656440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7411,9 +7427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>759240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7422,7 +7438,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030640" y="2352240"/>
-        <a:ext cx="10830240" cy="2665080"/>
+        <a:ext cx="10829880" cy="2664720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7446,9 +7462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>759240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7457,7 +7473,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5406840" y="2303280"/>
-        <a:ext cx="10454040" cy="2495160"/>
+        <a:ext cx="10453680" cy="2494800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7481,9 +7497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>558720</xdr:colOff>
+      <xdr:colOff>558360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7492,7 +7508,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5030280" y="2293200"/>
-        <a:ext cx="10643040" cy="2717640"/>
+        <a:ext cx="10642680" cy="2717280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7516,9 +7532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505800</xdr:colOff>
+      <xdr:colOff>505440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7527,7 +7543,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2269800"/>
-        <a:ext cx="10401480" cy="2709360"/>
+        <a:ext cx="10401120" cy="2709000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7546,9 +7562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505080</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7557,7 +7573,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2293200"/>
-        <a:ext cx="10411200" cy="2717640"/>
+        <a:ext cx="10410840" cy="2717280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7581,9 +7597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505800</xdr:colOff>
+      <xdr:colOff>505440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7592,7 +7608,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10401480" cy="2709720"/>
+        <a:ext cx="10401120" cy="2709360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7611,9 +7627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505080</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7622,7 +7638,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4154040" y="2321640"/>
-        <a:ext cx="10411200" cy="2718000"/>
+        <a:ext cx="10410840" cy="2717640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7646,9 +7662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7657,7 +7673,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4164480" y="2298240"/>
-        <a:ext cx="10395000" cy="2709720"/>
+        <a:ext cx="10394640" cy="2709360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7676,9 +7692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
+      <xdr:colOff>498240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7687,7 +7703,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3972960" y="2321640"/>
-        <a:ext cx="10585800" cy="2718000"/>
+        <a:ext cx="10585440" cy="2717640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7899,6 +7915,509 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5784</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>13796</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>8116</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6376</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>4040</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4499</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9684</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>7907</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>6376</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3246</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>4872</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>7979</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>15258</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>40.82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>256233</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2811</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>164.809</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>8.45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>6376</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>4587</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -7918,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,18 +8512,18 @@
         <v>25380</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8018,14 +8537,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -9707,20 +10226,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9750,31 +10272,28 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4850</v>
+        <v>15844</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>0.021</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4.85</v>
+        <v>1.58</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>15.96</v>
+        <v>1.3117</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9782,19 +10301,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>5784</v>
+        <v>31691</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2</v>
+        <v>0.98</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>5.83</v>
+        <v>4.36</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>13.18</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9802,19 +10321,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>13796</v>
+        <v>51690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4</v>
+        <v>0.76</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>13.79</v>
+        <v>5.16</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>25.87</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9822,39 +10341,39 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>8116</v>
+        <v>57811</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2</v>
+        <v>0.38</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>362</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>8.11</v>
+        <v>5.78</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>16.38</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>6376</v>
+      <c r="B7" s="0" t="n">
+        <v>1479</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.12</v>
+        <v>0.068</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5.31</v>
+        <v>1.086</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.063</v>
+        <v>0.1479</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.645</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,30 +10381,46 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2811</v>
+        <v>1125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>0.056</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>53</v>
+        <v>1.039</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>2.81</v>
+        <v>0.1125</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.97</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="8" t="n">
+        <v>44056</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>10.936</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -9911,23 +10446,23 @@
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>4040</v>
+      <c r="B14" s="0" t="n">
+        <v>7790</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>4.04</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13.45</v>
+        <v>0.96</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9935,19 +10470,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4499</v>
+        <v>13984</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>0.47</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4.499</v>
+        <v>1.39</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.25</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,19 +10490,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>9684</v>
+        <v>54563</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>9.68</v>
+        <v>5.45</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>20.47</v>
+        <v>8.72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9975,19 +10510,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>7907</v>
+        <v>60360</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>0.79</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>7.9</v>
+        <v>6.03</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>11.57</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,19 +10530,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>6376</v>
+        <v>311</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.12</v>
+        <v>0.0018</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>5.31</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.063</v>
+        <v>0.031</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.645</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10015,30 +10550,40 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>3246</v>
+        <v>560</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>1</v>
+        <v>0.0042</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>148</v>
+        <v>1.006</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>3.24</v>
+        <v>0.056</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5.97</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="8" t="n">
+        <v>44054</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.964</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -10065,22 +10610,22 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>4872</v>
+        <v>28752</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>4.87</v>
+        <v>2.87</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14.69</v>
+        <v>3.99</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,19 +10633,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7979</v>
+        <v>33896</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>7.79</v>
+        <v>3.4</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>21.78</v>
+        <v>3.209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10108,90 +10653,90 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>15258</v>
+        <v>40384</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>15.25</v>
+        <v>4.03</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>40.82</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>256233</v>
+      <c r="B30" s="0" t="n">
+        <v>30972</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2811</v>
+        <v>124</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>164.809</v>
+        <v>3.09</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8.45</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>6376</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>0.645</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>4587</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>13.37</v>
+      <c r="B32" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="8" t="n">
+        <v>51430</v>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.36</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
